--- a/data/trans_camb/P2B_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P2B_R-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>22,53; 38,68</t>
+          <t>23,28; 38,59</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,25; 25,96</t>
+          <t>9,73; 26,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,57; 10,36</t>
+          <t>-11,72; 10,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>29,54; 43,17</t>
+          <t>28,68; 42,73</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>23,49; 38,16</t>
+          <t>23,68; 38,17</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 19,99</t>
+          <t>-0,47; 20,3</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>28,14; 38,65</t>
+          <t>28,48; 38,86</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>19,32; 29,89</t>
+          <t>18,55; 29,79</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 11,11</t>
+          <t>-3,57; 11,19</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>97,69; 245,51</t>
+          <t>100,47; 244,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>38,33; 158,94</t>
+          <t>46,29; 169,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-55,98; 61,69</t>
+          <t>-54,97; 64,51</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>148,9; 353,61</t>
+          <t>144,29; 339,59</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>117,89; 296,35</t>
+          <t>122,39; 298,31</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-6,07; 145,16</t>
+          <t>-2,19; 154,09</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>136,22; 256,35</t>
+          <t>139,71; 260,77</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>96,8; 200,94</t>
+          <t>88,56; 190,85</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-19,41; 71,68</t>
+          <t>-19,46; 68,77</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>19,2; 31,84</t>
+          <t>19,49; 32,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>18,91; 33,72</t>
+          <t>19,42; 33,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,71; 9,55</t>
+          <t>-9,28; 10,3</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>36,01; 47,55</t>
+          <t>35,47; 47,51</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>24,5; 37,27</t>
+          <t>24,76; 36,68</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,51; 7,03</t>
+          <t>-8,63; 5,92</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>29,66; 38,55</t>
+          <t>29,51; 38,58</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>24,44; 33,67</t>
+          <t>24,06; 33,03</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 6,14</t>
+          <t>-5,71; 5,94</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>57,72; 124,18</t>
+          <t>58,45; 122,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>58,04; 127,01</t>
+          <t>59,95; 128,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-27,9; 35,31</t>
+          <t>-29,86; 38,11</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>95,89; 154,23</t>
+          <t>92,5; 156,64</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>65,56; 121,38</t>
+          <t>64,8; 117,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-22,97; 22,1</t>
+          <t>-22,93; 18,91</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>86,04; 130,86</t>
+          <t>83,81; 129,22</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>71,11; 112,42</t>
+          <t>69,94; 110,4</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-16,44; 20,38</t>
+          <t>-17,01; 19,18</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>40,76; 51,01</t>
+          <t>40,28; 50,94</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>27,4; 39,53</t>
+          <t>27,83; 39,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 12,55</t>
+          <t>0,09; 12,7</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>41,36; 51,89</t>
+          <t>41,47; 51,36</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>30,32; 40,73</t>
+          <t>29,39; 40,31</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,86; 4,26</t>
+          <t>-6,63; 4,75</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>42,89; 50,07</t>
+          <t>42,63; 49,54</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>30,74; 38,63</t>
+          <t>30,78; 38,73</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 6,59</t>
+          <t>-2,01; 6,75</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>133,34; 214,79</t>
+          <t>131,69; 210,61</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>89,76; 165,0</t>
+          <t>89,7; 163,56</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 51,66</t>
+          <t>0,26; 52,19</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>124,4; 194,0</t>
+          <t>124,9; 190,16</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>92,15; 150,39</t>
+          <t>90,89; 149,55</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-21,64; 15,36</t>
+          <t>-20,31; 17,02</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>138,06; 190,34</t>
+          <t>140,43; 189,38</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>99,97; 145,95</t>
+          <t>101,47; 146,77</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-6,45; 24,65</t>
+          <t>-6,68; 24,94</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>32,72; 44,54</t>
+          <t>32,84; 45,47</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>18,66; 30,94</t>
+          <t>18,94; 30,85</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,56; 15,29</t>
+          <t>3,37; 14,32</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>19,46; 31,4</t>
+          <t>19,51; 30,81</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>14,76; 27,1</t>
+          <t>15,03; 26,26</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 8,6</t>
+          <t>-1,0; 9,58</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>27,39; 36,2</t>
+          <t>27,63; 35,89</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>18,64; 27,02</t>
+          <t>18,62; 26,92</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,57; 9,93</t>
+          <t>2,53; 10,03</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>165,67; 340,36</t>
+          <t>166,32; 333,28</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>97,49; 230,84</t>
+          <t>95,73; 227,86</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>18,3; 115,78</t>
+          <t>17,4; 103,27</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>88,04; 193,79</t>
+          <t>83,25; 185,81</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>66,24; 166,85</t>
+          <t>70,0; 160,06</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 51,84</t>
+          <t>-4,7; 57,8</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>136,55; 230,17</t>
+          <t>137,16; 230,47</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>93,99; 170,59</t>
+          <t>93,58; 171,53</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>13,23; 64,09</t>
+          <t>12,89; 63,95</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>8,68; 21,47</t>
+          <t>9,0; 21,46</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>3,27; 15,07</t>
+          <t>3,07; 15,29</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 10,63</t>
+          <t>-0,95; 10,8</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>4,5; 17,68</t>
+          <t>4,75; 18,07</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 12,26</t>
+          <t>-0,78; 12,19</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 4,18</t>
+          <t>-6,33; 4,44</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>8,74; 17,75</t>
+          <t>8,57; 17,47</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>2,51; 11,35</t>
+          <t>3,25; 12,48</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 6,09</t>
+          <t>-2,4; 5,73</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>49,06; 176,95</t>
+          <t>50,05; 185,39</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>18,13; 128,13</t>
+          <t>16,75; 124,47</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-5,16; 89,31</t>
+          <t>-6,49; 94,09</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>17,94; 101,74</t>
+          <t>19,22; 102,88</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 69,21</t>
+          <t>-3,92; 67,94</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-27,61; 22,73</t>
+          <t>-27,29; 26,93</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>44,13; 113,15</t>
+          <t>42,05; 112,6</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>12,26; 71,65</t>
+          <t>15,94; 80,62</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-10,09; 39,02</t>
+          <t>-11,72; 37,08</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>11,46; 23,15</t>
+          <t>11,41; 22,31</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>3,37; 13,75</t>
+          <t>3,21; 13,63</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 3,83</t>
+          <t>-4,94; 3,64</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>5,34; 15,76</t>
+          <t>5,74; 15,8</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>5,23; 15,48</t>
+          <t>4,9; 15,34</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>1,51; 29,99</t>
+          <t>1,56; 31,46</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>9,82; 17,27</t>
+          <t>9,87; 17,46</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>5,89; 13,33</t>
+          <t>5,82; 13,35</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>0,48; 20,43</t>
+          <t>0,42; 21,9</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>50,37; 133,72</t>
+          <t>51,22; 126,39</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>14,49; 80,42</t>
+          <t>12,66; 76,93</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-20,72; 22,32</t>
+          <t>-20,72; 20,81</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>17,55; 62,5</t>
+          <t>19,29; 63,21</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>16,99; 60,59</t>
+          <t>15,36; 60,72</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>5,07; 113,04</t>
+          <t>5,4; 122,65</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>37,56; 76,4</t>
+          <t>37,48; 78,0</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>22,04; 59,11</t>
+          <t>22,45; 59,01</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>1,67; 87,04</t>
+          <t>1,76; 90,94</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>27,12; 32,6</t>
+          <t>27,36; 32,5</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>17,05; 22,44</t>
+          <t>17,25; 22,3</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 4,58</t>
+          <t>-0,48; 4,58</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>25,8; 30,42</t>
+          <t>25,24; 30,25</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>18,2; 23,1</t>
+          <t>18,24; 23,31</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,41; 13,21</t>
+          <t>0,5; 13,45</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>26,97; 30,5</t>
+          <t>27,01; 30,5</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>18,25; 21,98</t>
+          <t>18,51; 22,1</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>1,0; 9,57</t>
+          <t>1,11; 8,92</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>117,32; 159,14</t>
+          <t>117,1; 158,35</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>73,49; 108,72</t>
+          <t>74,32; 109,38</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 21,77</t>
+          <t>-2,08; 22,02</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>93,74; 123,11</t>
+          <t>91,73; 121,61</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>66,44; 92,38</t>
+          <t>66,17; 93,47</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>1,5; 52,44</t>
+          <t>1,83; 53,45</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>107,28; 131,06</t>
+          <t>108,18; 132,61</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>73,18; 94,43</t>
+          <t>74,11; 94,8</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>3,88; 38,18</t>
+          <t>4,4; 37,66</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2B_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P2B_R-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>23,28; 38,59</t>
+          <t>22,22; 38,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,73; 26,42</t>
+          <t>9,23; 25,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,72; 10,72</t>
+          <t>-11,02; 10,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>28,68; 42,73</t>
+          <t>28,26; 42,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>23,68; 38,17</t>
+          <t>22,74; 37,56</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 20,3</t>
+          <t>-0,79; 19,13</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>28,48; 38,86</t>
+          <t>28,33; 39,1</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>18,55; 29,79</t>
+          <t>18,84; 29,66</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 11,19</t>
+          <t>-3,28; 11,93</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>100,47; 244,48</t>
+          <t>96,04; 250,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>46,29; 169,86</t>
+          <t>40,06; 158,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-54,97; 64,51</t>
+          <t>-53,88; 58,27</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>144,29; 339,59</t>
+          <t>142,56; 336,42</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>122,39; 298,31</t>
+          <t>113,35; 285,15</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 154,09</t>
+          <t>-6,16; 134,26</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>139,71; 260,77</t>
+          <t>141,21; 267,44</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>88,56; 190,85</t>
+          <t>93,77; 192,61</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-19,46; 68,77</t>
+          <t>-17,63; 74,67</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>19,49; 32,53</t>
+          <t>19,28; 32,05</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>19,42; 33,5</t>
+          <t>19,15; 33,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,28; 10,3</t>
+          <t>-9,06; 9,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>35,47; 47,51</t>
+          <t>36,01; 47,26</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>24,76; 36,68</t>
+          <t>24,27; 36,69</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,63; 5,92</t>
+          <t>-8,61; 6,05</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>29,51; 38,58</t>
+          <t>29,04; 38,45</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>24,06; 33,03</t>
+          <t>24,35; 34,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-5,71; 5,94</t>
+          <t>-6,04; 5,92</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>58,45; 122,75</t>
+          <t>58,53; 122,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>59,95; 128,66</t>
+          <t>58,99; 130,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-29,86; 38,11</t>
+          <t>-28,45; 34,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>92,5; 156,64</t>
+          <t>95,23; 153,6</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>64,8; 117,3</t>
+          <t>64,93; 121,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-22,93; 18,91</t>
+          <t>-23,45; 18,4</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>83,81; 129,22</t>
+          <t>83,27; 130,35</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>69,94; 110,4</t>
+          <t>70,29; 115,07</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-17,01; 19,18</t>
+          <t>-17,7; 19,23</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>40,28; 50,94</t>
+          <t>40,0; 51,01</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>27,83; 39,43</t>
+          <t>28,5; 39,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,09; 12,7</t>
+          <t>0,09; 12,66</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>41,47; 51,36</t>
+          <t>41,9; 51,9</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>29,39; 40,31</t>
+          <t>29,41; 40,22</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,63; 4,75</t>
+          <t>-6,4; 4,7</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>42,63; 49,54</t>
+          <t>42,84; 49,95</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>30,78; 38,73</t>
+          <t>30,37; 38,34</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,01; 6,75</t>
+          <t>-2,36; 6,72</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>131,69; 210,61</t>
+          <t>130,15; 216,72</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>89,7; 163,56</t>
+          <t>94,86; 167,4</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,26; 52,19</t>
+          <t>0,37; 51,82</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>124,9; 190,16</t>
+          <t>125,9; 191,59</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>90,89; 149,55</t>
+          <t>89,36; 149,38</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-20,31; 17,02</t>
+          <t>-20,25; 16,78</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>140,43; 189,38</t>
+          <t>137,82; 189,56</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>101,47; 146,77</t>
+          <t>99,62; 147,48</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-6,68; 24,94</t>
+          <t>-7,98; 24,93</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>32,84; 45,47</t>
+          <t>33,01; 44,84</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>18,94; 30,85</t>
+          <t>18,98; 30,77</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,37; 14,32</t>
+          <t>2,96; 14,57</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>19,51; 30,81</t>
+          <t>19,05; 31,17</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>15,03; 26,26</t>
+          <t>14,75; 26,34</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 9,58</t>
+          <t>-1,36; 8,88</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>27,63; 35,89</t>
+          <t>27,18; 35,95</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>18,62; 26,92</t>
+          <t>18,52; 26,94</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,53; 10,03</t>
+          <t>2,89; 9,96</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>166,32; 333,28</t>
+          <t>169,72; 342,07</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>95,73; 227,86</t>
+          <t>99,94; 238,26</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>17,4; 103,27</t>
+          <t>15,93; 111,29</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>83,25; 185,81</t>
+          <t>86,64; 191,19</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>70,0; 160,06</t>
+          <t>66,6; 160,55</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-4,7; 57,8</t>
+          <t>-6,69; 52,64</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>137,16; 230,47</t>
+          <t>137,0; 231,45</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>93,58; 171,53</t>
+          <t>93,0; 171,92</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>12,89; 63,95</t>
+          <t>14,48; 63,21</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>9,0; 21,46</t>
+          <t>8,75; 22,13</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>3,07; 15,29</t>
+          <t>3,03; 15,9</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 10,8</t>
+          <t>-0,57; 11,22</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>4,75; 18,07</t>
+          <t>4,31; 17,72</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 12,19</t>
+          <t>-0,69; 12,37</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-6,33; 4,44</t>
+          <t>-6,42; 4,48</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>8,57; 17,47</t>
+          <t>9,17; 18,07</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>3,25; 12,48</t>
+          <t>2,92; 11,59</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 5,73</t>
+          <t>-1,95; 5,87</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>50,05; 185,39</t>
+          <t>49,45; 186,22</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>16,75; 124,47</t>
+          <t>15,6; 133,31</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-6,49; 94,09</t>
+          <t>-4,05; 97,42</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>19,22; 102,88</t>
+          <t>17,22; 99,19</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 67,94</t>
+          <t>-2,38; 72,62</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-27,29; 26,93</t>
+          <t>-27,05; 27,52</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>42,05; 112,6</t>
+          <t>44,77; 112,08</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>15,94; 80,62</t>
+          <t>14,68; 73,68</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-11,72; 37,08</t>
+          <t>-10,33; 36,88</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>11,41; 22,31</t>
+          <t>11,23; 22,75</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>3,21; 13,63</t>
+          <t>3,65; 13,36</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 3,64</t>
+          <t>-5,39; 3,59</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>5,74; 15,8</t>
+          <t>5,9; 16,11</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>4,9; 15,34</t>
+          <t>5,05; 15,45</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>1,56; 31,46</t>
+          <t>1,37; 30,95</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>9,87; 17,46</t>
+          <t>9,96; 17,38</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>5,82; 13,35</t>
+          <t>6,02; 13,19</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>0,42; 21,9</t>
+          <t>0,27; 22,1</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>51,22; 126,39</t>
+          <t>47,34; 129,3</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>12,66; 76,93</t>
+          <t>15,11; 75,47</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-20,72; 20,81</t>
+          <t>-22,93; 20,5</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>19,29; 63,21</t>
+          <t>18,6; 64,03</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>15,36; 60,72</t>
+          <t>16,04; 61,02</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>5,4; 122,65</t>
+          <t>4,67; 116,08</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>37,48; 78,0</t>
+          <t>37,68; 76,2</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>22,45; 59,01</t>
+          <t>23,03; 57,64</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>1,76; 90,94</t>
+          <t>1,02; 89,74</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>27,36; 32,5</t>
+          <t>27,12; 32,34</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>17,25; 22,3</t>
+          <t>16,91; 22,43</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 4,58</t>
+          <t>-0,41; 4,55</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>25,24; 30,25</t>
+          <t>25,4; 30,43</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>18,24; 23,31</t>
+          <t>17,99; 23,11</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,5; 13,45</t>
+          <t>0,49; 13,15</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>27,01; 30,5</t>
+          <t>26,94; 30,56</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>18,51; 22,1</t>
+          <t>18,4; 22,04</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>1,11; 8,92</t>
+          <t>1,06; 8,41</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>117,1; 158,35</t>
+          <t>116,89; 158,21</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>74,32; 109,38</t>
+          <t>73,9; 108,84</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 22,02</t>
+          <t>-1,82; 22,18</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>91,73; 121,61</t>
+          <t>92,89; 122,78</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>66,17; 93,47</t>
+          <t>66,0; 92,3</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>1,83; 53,45</t>
+          <t>1,79; 51,49</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>108,18; 132,61</t>
+          <t>107,01; 131,7</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>74,11; 94,8</t>
+          <t>73,01; 95,31</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>4,4; 37,66</t>
+          <t>4,23; 36,63</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2B_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P2B_R-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>22,22; 38,52</t>
+          <t>22,53; 38,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,23; 25,37</t>
+          <t>9,25; 25,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,02; 10,01</t>
+          <t>-11,57; 10,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>28,26; 42,15</t>
+          <t>29,54; 43,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>22,74; 37,56</t>
+          <t>23,49; 38,16</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 19,13</t>
+          <t>-1,0; 19,99</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>28,33; 39,1</t>
+          <t>28,14; 38,65</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>18,84; 29,66</t>
+          <t>19,32; 29,89</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 11,93</t>
+          <t>-3,66; 11,11</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>96,04; 250,54</t>
+          <t>97,69; 245,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>40,06; 158,25</t>
+          <t>38,33; 158,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-53,88; 58,27</t>
+          <t>-55,98; 61,69</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>142,56; 336,42</t>
+          <t>148,9; 353,61</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>113,35; 285,15</t>
+          <t>117,89; 296,35</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-6,16; 134,26</t>
+          <t>-6,07; 145,16</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>141,21; 267,44</t>
+          <t>136,22; 256,35</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>93,77; 192,61</t>
+          <t>96,8; 200,94</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-17,63; 74,67</t>
+          <t>-19,41; 71,68</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>19,28; 32,05</t>
+          <t>19,2; 31,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>19,15; 33,76</t>
+          <t>18,91; 33,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,06; 9,4</t>
+          <t>-8,71; 9,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>36,01; 47,26</t>
+          <t>36,01; 47,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>24,27; 36,69</t>
+          <t>24,5; 37,27</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,61; 6,05</t>
+          <t>-8,51; 7,03</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>29,04; 38,45</t>
+          <t>29,66; 38,55</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>24,35; 34,0</t>
+          <t>24,44; 33,67</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 5,92</t>
+          <t>-5,46; 6,14</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>58,53; 122,95</t>
+          <t>57,72; 124,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>58,99; 130,92</t>
+          <t>58,04; 127,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-28,45; 34,7</t>
+          <t>-27,9; 35,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>95,23; 153,6</t>
+          <t>95,89; 154,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>64,93; 121,04</t>
+          <t>65,56; 121,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-23,45; 18,4</t>
+          <t>-22,97; 22,1</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>83,27; 130,35</t>
+          <t>86,04; 130,86</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>70,29; 115,07</t>
+          <t>71,11; 112,42</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-17,7; 19,23</t>
+          <t>-16,44; 20,38</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>40,0; 51,01</t>
+          <t>40,76; 51,01</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>28,5; 39,87</t>
+          <t>27,4; 39,53</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,09; 12,66</t>
+          <t>-0,1; 12,55</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>41,9; 51,9</t>
+          <t>41,36; 51,89</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>29,41; 40,22</t>
+          <t>30,32; 40,73</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,4; 4,7</t>
+          <t>-6,86; 4,26</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>42,84; 49,95</t>
+          <t>42,89; 50,07</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>30,37; 38,34</t>
+          <t>30,74; 38,63</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 6,72</t>
+          <t>-1,99; 6,59</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>130,15; 216,72</t>
+          <t>133,34; 214,79</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>94,86; 167,4</t>
+          <t>89,76; 165,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,37; 51,82</t>
+          <t>-0,55; 51,66</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>125,9; 191,59</t>
+          <t>124,4; 194,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>89,36; 149,38</t>
+          <t>92,15; 150,39</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-20,25; 16,78</t>
+          <t>-21,64; 15,36</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>137,82; 189,56</t>
+          <t>138,06; 190,34</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>99,62; 147,48</t>
+          <t>99,97; 145,95</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-7,98; 24,93</t>
+          <t>-6,45; 24,65</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>33,01; 44,84</t>
+          <t>32,72; 44,54</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>18,98; 30,77</t>
+          <t>18,66; 30,94</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,96; 14,57</t>
+          <t>3,56; 15,29</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>19,05; 31,17</t>
+          <t>19,46; 31,4</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>14,75; 26,34</t>
+          <t>14,76; 27,1</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 8,88</t>
+          <t>-1,25; 8,6</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>27,18; 35,95</t>
+          <t>27,39; 36,2</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>18,52; 26,94</t>
+          <t>18,64; 27,02</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,89; 9,96</t>
+          <t>2,57; 9,93</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>169,72; 342,07</t>
+          <t>165,67; 340,36</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>99,94; 238,26</t>
+          <t>97,49; 230,84</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>15,93; 111,29</t>
+          <t>18,3; 115,78</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>86,64; 191,19</t>
+          <t>88,04; 193,79</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>66,6; 160,55</t>
+          <t>66,24; 166,85</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-6,69; 52,64</t>
+          <t>-5,43; 51,84</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>137,0; 231,45</t>
+          <t>136,55; 230,17</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>93,0; 171,92</t>
+          <t>93,99; 170,59</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>14,48; 63,21</t>
+          <t>13,23; 64,09</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>8,75; 22,13</t>
+          <t>8,68; 21,47</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>3,03; 15,9</t>
+          <t>3,27; 15,07</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 11,22</t>
+          <t>-0,77; 10,63</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>4,31; 17,72</t>
+          <t>4,5; 17,68</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 12,37</t>
+          <t>-0,76; 12,26</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-6,42; 4,48</t>
+          <t>-6,34; 4,18</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>9,17; 18,07</t>
+          <t>8,74; 17,75</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>2,92; 11,59</t>
+          <t>2,51; 11,35</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 5,87</t>
+          <t>-2,0; 6,09</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>49,45; 186,22</t>
+          <t>49,06; 176,95</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>15,6; 133,31</t>
+          <t>18,13; 128,13</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 97,42</t>
+          <t>-5,16; 89,31</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>17,22; 99,19</t>
+          <t>17,94; 101,74</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 72,62</t>
+          <t>-3,48; 69,21</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-27,05; 27,52</t>
+          <t>-27,61; 22,73</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>44,77; 112,08</t>
+          <t>44,13; 113,15</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>14,68; 73,68</t>
+          <t>12,26; 71,65</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-10,33; 36,88</t>
+          <t>-10,09; 39,02</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>11,23; 22,75</t>
+          <t>11,46; 23,15</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>3,65; 13,36</t>
+          <t>3,37; 13,75</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-5,39; 3,59</t>
+          <t>-4,77; 3,83</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>5,9; 16,11</t>
+          <t>5,34; 15,76</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>5,05; 15,45</t>
+          <t>5,23; 15,48</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>1,37; 30,95</t>
+          <t>1,51; 29,99</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>9,96; 17,38</t>
+          <t>9,82; 17,27</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>6,02; 13,19</t>
+          <t>5,89; 13,33</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>0,27; 22,1</t>
+          <t>0,48; 20,43</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>47,34; 129,3</t>
+          <t>50,37; 133,72</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>15,11; 75,47</t>
+          <t>14,49; 80,42</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-22,93; 20,5</t>
+          <t>-20,72; 22,32</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>18,6; 64,03</t>
+          <t>17,55; 62,5</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>16,04; 61,02</t>
+          <t>16,99; 60,59</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>4,67; 116,08</t>
+          <t>5,07; 113,04</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>37,68; 76,2</t>
+          <t>37,56; 76,4</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>23,03; 57,64</t>
+          <t>22,04; 59,11</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>1,02; 89,74</t>
+          <t>1,67; 87,04</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>27,12; 32,34</t>
+          <t>27,12; 32,6</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>16,91; 22,43</t>
+          <t>17,05; 22,44</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 4,55</t>
+          <t>-0,54; 4,58</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>25,4; 30,43</t>
+          <t>25,8; 30,42</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>17,99; 23,11</t>
+          <t>18,2; 23,1</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,49; 13,15</t>
+          <t>0,41; 13,21</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>26,94; 30,56</t>
+          <t>26,97; 30,5</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>18,4; 22,04</t>
+          <t>18,25; 21,98</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>1,06; 8,41</t>
+          <t>1,0; 9,57</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>116,89; 158,21</t>
+          <t>117,32; 159,14</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>73,9; 108,84</t>
+          <t>73,49; 108,72</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 22,18</t>
+          <t>-2,53; 21,77</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>92,89; 122,78</t>
+          <t>93,74; 123,11</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>66,0; 92,3</t>
+          <t>66,44; 92,38</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>1,79; 51,49</t>
+          <t>1,5; 52,44</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>107,01; 131,7</t>
+          <t>107,28; 131,06</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>73,01; 95,31</t>
+          <t>73,18; 94,43</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>4,23; 36,63</t>
+          <t>3,88; 38,18</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2B_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P2B_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,93</t>
+          <t>-4,93</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>8,89</t>
+          <t>7,0</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3,64</t>
+          <t>0,75</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,57; 10,36</t>
+          <t>-13,51; 6,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 19,99</t>
+          <t>-2,3; 17,61</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 11,11</t>
+          <t>-5,67; 7,92</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-9,96%</t>
+          <t>-25,49%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>55,76%</t>
+          <t>43,89%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>20,81%</t>
+          <t>4,28%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-55,98; 61,69</t>
+          <t>-64,1; 35,14</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-6,07; 145,16</t>
+          <t>-14,24; 130,03</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,14 +831,14 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-19,41; 71,68</t>
+          <t>-30,62; 50,93</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>-1,78</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,2</t>
+          <t>-7,8</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>-5,12</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,71; 9,55</t>
+          <t>-10,37; 7,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,51; 7,03</t>
+          <t>-21,84; 1,73</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 6,14</t>
+          <t>-13,83; 2,15</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,13%</t>
+          <t>-6,04%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-3,47%</t>
+          <t>-22,61%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-0,75%</t>
+          <t>-15,92%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-27,9; 35,31</t>
+          <t>-33,46; 27,59</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-22,97; 22,1</t>
+          <t>-59,3; 5,02</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,14 +1047,14 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-16,44; 20,38</t>
+          <t>-41,73; 6,59</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6,17</t>
+          <t>4,7</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,83</t>
+          <t>-3,33</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>2,26</t>
+          <t>0,19</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 12,55</t>
+          <t>-1,58; 10,96</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,86; 4,26</t>
+          <t>-11,45; 2,1</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 6,59</t>
+          <t>-4,87; 4,66</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>22,87%</t>
+          <t>17,43%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-2,77%</t>
+          <t>-11,1%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>7,92%</t>
+          <t>0,67%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 51,66</t>
+          <t>-5,21; 44,99</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-21,64; 15,36</t>
+          <t>-35,65; 7,38</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,14 +1263,14 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-6,45; 24,65</t>
+          <t>-16,14; 17,33</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>9,1</t>
+          <t>7,91</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,93</t>
+          <t>2,15</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>6,43</t>
+          <t>4,92</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,56; 15,29</t>
+          <t>2,5; 14,01</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 8,6</t>
+          <t>-4,45; 6,93</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,57; 9,93</t>
+          <t>0,78; 8,49</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>56,36%</t>
+          <t>48,99%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>20,25%</t>
+          <t>11,09%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>36,15%</t>
+          <t>27,64%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>18,3; 115,78</t>
+          <t>12,92; 107,04</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 51,84</t>
+          <t>-19,46; 40,88</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,14 +1479,14 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>13,23; 64,09</t>
+          <t>4,37; 54,05</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>4,9</t>
+          <t>4,64</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-0,97</t>
+          <t>-1,22</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>1,85</t>
+          <t>1,6</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 10,63</t>
+          <t>-0,95; 10,5</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 4,18</t>
+          <t>-6,58; 3,81</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 6,09</t>
+          <t>-2,15; 5,85</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>33,44%</t>
+          <t>31,69%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-4,67%</t>
+          <t>-5,86%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>10,38%</t>
+          <t>8,96%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-5,16; 89,31</t>
+          <t>-5,76; 87,55</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-27,61; 22,73</t>
+          <t>-28,58; 21,63</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,14 +1695,14 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-10,09; 39,02</t>
+          <t>-10,85; 37,64</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>17,04</t>
+          <t>15,45</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
+          <t>8,08</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>-2,53</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>2,47</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>3,65</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>20,77</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
           <t>8,46</t>
         </is>
       </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-0,32</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>10,83</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>10,28</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>10,24</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>13,47</t>
-        </is>
-      </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>9,44</t>
+          <t>5,63</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>6,16</t>
+          <t>12,84</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>11,46; 23,15</t>
+          <t>8,41; 22,26</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>3,37; 13,75</t>
+          <t>1,82; 14,11</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 3,83</t>
+          <t>-7,12; 2,27</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>5,34; 15,76</t>
+          <t>-3,73; 8,49</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>5,23; 15,48</t>
+          <t>-2,51; 10,02</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>1,51; 29,99</t>
+          <t>-8,99; 57,85</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>9,82; 17,27</t>
+          <t>4,03; 13,09</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>5,89; 13,33</t>
+          <t>1,39; 9,9</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>0,48; 20,43</t>
+          <t>-6,45; 44,29</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>84,85%</t>
+          <t>109,09%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>42,14%</t>
+          <t>57,05%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-1,61%</t>
+          <t>-17,85%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>38,76%</t>
+          <t>10,45%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>36,8%</t>
+          <t>15,45%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>36,64%</t>
+          <t>87,82%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>54,74%</t>
+          <t>43,85%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>38,37%</t>
+          <t>29,18%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>25,03%</t>
+          <t>66,56%</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>50,37; 133,72</t>
+          <t>48,49; 195,83</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>14,49; 80,42</t>
+          <t>10,17; 122,44</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-20,72; 22,32</t>
+          <t>-41,9; 21,05</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>17,55; 62,5</t>
+          <t>-14,19; 40,28</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>16,99; 60,59</t>
+          <t>-9,78; 48,5</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>5,07; 113,04</t>
+          <t>-36,02; 288,87</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>37,56; 76,4</t>
+          <t>18,77; 78,4</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>22,04; 59,11</t>
+          <t>5,6; 57,76</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>1,67; 87,04</t>
+          <t>-32,57; 248,06</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>29,97</t>
+          <t>18,07</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>19,79</t>
+          <t>8,33</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>2,04</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>27,97</t>
+          <t>18,01</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>20,77</t>
+          <t>16,0</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>4,05</t>
+          <t>11,23</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>28,88</t>
+          <t>18,0</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>20,34</t>
+          <t>12,98</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>3,32</t>
+          <t>7,32</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>27,12; 32,6</t>
+          <t>8,04; 27,19</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>17,05; 22,44</t>
+          <t>-0,14; 15,88</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 4,58</t>
+          <t>-6,94; 7,89</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>25,8; 30,42</t>
+          <t>9,85; 25,22</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>18,2; 23,1</t>
+          <t>7,82; 23,87</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,41; 13,21</t>
+          <t>5,21; 17,33</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>26,97; 30,5</t>
+          <t>11,47; 23,32</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>18,25; 21,98</t>
+          <t>6,91; 18,5</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>1,0; 9,57</t>
+          <t>2,34; 12,08</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>137,26%</t>
+          <t>63,85%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>90,63%</t>
+          <t>29,44%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>9,33%</t>
+          <t>5,47%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>106,79%</t>
+          <t>55,65%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>79,32%</t>
+          <t>49,46%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>15,46%</t>
+          <t>34,72%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>119,45%</t>
+          <t>58,47%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>84,11%</t>
+          <t>42,14%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>13,72%</t>
+          <t>23,78%</t>
         </is>
       </c>
     </row>
@@ -2087,59 +2087,276 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>24,58; 113,21</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-0,45; 64,78</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-20,96; 32,67</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>26,97; 90,97</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>21,41; 85,88</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>14,35; 62,84</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>33,86; 83,4</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>21,04; 67,45</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>6,92; 44,05</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>29,97</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>19,79</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>1,04</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>27,97</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>20,77</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>4,66</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>28,88</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>20,34</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>3,28</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>27,12; 32,6</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>17,05; 22,44</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-1,53; 3,46</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>25,8; 30,42</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>18,2; 23,1</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-1,34; 19,83</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>26,97; 30,5</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>18,25; 21,98</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>-0,51; 14,37</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>137,26%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>90,63%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>4,75%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>106,79%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>79,32%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>17,79%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>119,45%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>84,11%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>13,56%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>117,32; 159,14</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>73,49; 108,72</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>-2,53; 21,77</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>-6,89; 16,73</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>93,74; 123,11</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>66,44; 92,38</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>1,5; 52,44</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>-4,97; 80,1</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
         <is>
           <t>107,28; 131,06</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
+      <c r="J35" s="2" t="inlineStr">
         <is>
           <t>73,18; 94,43</t>
         </is>
       </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>3,88; 38,18</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>-2,22; 61,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>

--- a/data/trans_camb/P2B_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P2B_R-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>22,53; 38,68</t>
+          <t>22,94; 38,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,25; 25,96</t>
+          <t>9,94; 25,9</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,51; 6,01</t>
+          <t>-13,19; 5,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>29,54; 43,17</t>
+          <t>29,0; 42,26</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>23,49; 38,16</t>
+          <t>22,69; 38,22</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 17,61</t>
+          <t>-2,04; 17,76</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>28,14; 38,65</t>
+          <t>28,33; 39,15</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>19,32; 29,89</t>
+          <t>18,98; 30,05</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-5,67; 7,92</t>
+          <t>-5,51; 7,83</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>97,69; 245,51</t>
+          <t>98,44; 244,55</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>38,33; 158,94</t>
+          <t>41,24; 159,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-64,1; 35,14</t>
+          <t>-64,22; 33,98</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>148,9; 353,61</t>
+          <t>144,81; 327,08</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>117,89; 296,35</t>
+          <t>117,83; 304,23</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-14,24; 130,03</t>
+          <t>-12,14; 129,87</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>136,22; 256,35</t>
+          <t>137,44; 261,97</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>96,8; 200,94</t>
+          <t>94,73; 201,72</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-30,62; 50,93</t>
+          <t>-29,09; 48,09</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>19,2; 31,84</t>
+          <t>19,69; 32,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>18,91; 33,72</t>
+          <t>19,63; 32,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,37; 7,57</t>
+          <t>-10,38; 8,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>36,01; 47,55</t>
+          <t>35,61; 47,27</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>24,5; 37,27</t>
+          <t>25,22; 37,16</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-21,84; 1,73</t>
+          <t>-21,51; 1,25</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>29,66; 38,55</t>
+          <t>29,19; 38,14</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>24,44; 33,67</t>
+          <t>24,51; 33,73</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-13,83; 2,15</t>
+          <t>-14,47; 1,24</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>57,72; 124,18</t>
+          <t>59,26; 125,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>58,04; 127,01</t>
+          <t>58,55; 125,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-33,46; 27,59</t>
+          <t>-32,88; 29,26</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>95,89; 154,23</t>
+          <t>94,15; 154,11</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>65,56; 121,38</t>
+          <t>66,57; 122,84</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-59,3; 5,02</t>
+          <t>-59,83; 3,82</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>86,04; 130,86</t>
+          <t>85,24; 128,8</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>71,11; 112,42</t>
+          <t>70,88; 113,48</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-41,73; 6,59</t>
+          <t>-45,15; 3,66</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>40,76; 51,01</t>
+          <t>40,65; 50,99</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>27,4; 39,53</t>
+          <t>28,22; 39,99</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 10,96</t>
+          <t>-1,3; 11,23</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>41,36; 51,89</t>
+          <t>41,47; 51,37</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>30,32; 40,73</t>
+          <t>29,93; 40,37</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-11,45; 2,1</t>
+          <t>-11,27; 2,26</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>42,89; 50,07</t>
+          <t>42,97; 49,81</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>30,74; 38,63</t>
+          <t>30,73; 38,26</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 4,66</t>
+          <t>-5,31; 4,33</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>133,34; 214,79</t>
+          <t>131,6; 215,29</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>89,76; 165,0</t>
+          <t>93,07; 165,58</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 44,99</t>
+          <t>-4,35; 45,6</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>124,4; 194,0</t>
+          <t>125,64; 191,89</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>92,15; 150,39</t>
+          <t>91,48; 150,49</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-35,65; 7,38</t>
+          <t>-34,99; 7,77</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>138,06; 190,34</t>
+          <t>138,1; 187,82</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>99,97; 145,95</t>
+          <t>99,43; 143,02</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-16,14; 17,33</t>
+          <t>-17,51; 15,76</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>32,72; 44,54</t>
+          <t>32,8; 44,66</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>18,66; 30,94</t>
+          <t>19,11; 30,42</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,5; 14,01</t>
+          <t>2,07; 13,08</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>19,46; 31,4</t>
+          <t>19,03; 31,52</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>14,76; 27,1</t>
+          <t>15,63; 27,41</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 6,93</t>
+          <t>-3,73; 7,31</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>27,39; 36,2</t>
+          <t>27,65; 36,34</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>18,64; 27,02</t>
+          <t>18,63; 26,72</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,78; 8,49</t>
+          <t>1,26; 8,58</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>165,67; 340,36</t>
+          <t>167,47; 331,29</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>97,49; 230,84</t>
+          <t>97,51; 224,72</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>12,92; 107,04</t>
+          <t>11,18; 99,01</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>88,04; 193,79</t>
+          <t>81,74; 189,15</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>66,24; 166,85</t>
+          <t>70,17; 168,55</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-19,46; 40,88</t>
+          <t>-16,22; 44,7</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>136,55; 230,17</t>
+          <t>139,22; 232,95</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>93,99; 170,59</t>
+          <t>93,72; 171,12</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>4,37; 54,05</t>
+          <t>6,54; 52,91</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>8,68; 21,47</t>
+          <t>9,03; 22,03</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>3,27; 15,07</t>
+          <t>3,11; 15,25</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 10,5</t>
+          <t>-0,82; 10,09</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>4,5; 17,68</t>
+          <t>5,27; 18,33</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 12,26</t>
+          <t>-0,36; 12,12</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-6,58; 3,81</t>
+          <t>-6,54; 4,58</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>8,74; 17,75</t>
+          <t>8,66; 17,92</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>2,51; 11,35</t>
+          <t>2,89; 11,91</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 5,85</t>
+          <t>-2,37; 5,37</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>49,06; 176,95</t>
+          <t>48,36; 182,9</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>18,13; 128,13</t>
+          <t>16,43; 129,57</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-5,76; 87,55</t>
+          <t>-5,33; 85,45</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>17,94; 101,74</t>
+          <t>21,26; 101,58</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 69,21</t>
+          <t>-2,05; 69,69</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-28,58; 21,63</t>
+          <t>-27,32; 26,94</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>44,13; 113,15</t>
+          <t>42,2; 112,78</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>12,26; 71,65</t>
+          <t>13,95; 75,69</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-10,85; 37,64</t>
+          <t>-11,97; 34,1</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>8,41; 22,26</t>
+          <t>8,1; 21,76</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>1,82; 14,11</t>
+          <t>2,21; 14,82</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-7,12; 2,27</t>
+          <t>-7,83; 1,89</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 8,49</t>
+          <t>-3,35; 9,53</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 10,02</t>
+          <t>-2,73; 9,91</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-8,99; 57,85</t>
+          <t>-8,89; 54,58</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>4,03; 13,09</t>
+          <t>3,55; 13,05</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>1,39; 9,9</t>
+          <t>0,82; 10,11</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-6,45; 44,29</t>
+          <t>-6,12; 45,13</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>48,49; 195,83</t>
+          <t>44,35; 198,7</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>10,17; 122,44</t>
+          <t>10,88; 133,03</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-41,9; 21,05</t>
+          <t>-44,26; 16,91</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-14,19; 40,28</t>
+          <t>-12,31; 48,7</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-9,78; 48,5</t>
+          <t>-10,51; 48,41</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-36,02; 288,87</t>
+          <t>-36,35; 258,1</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>18,77; 78,4</t>
+          <t>16,83; 77,23</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>5,6; 57,76</t>
+          <t>4,18; 60,42</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-32,57; 248,06</t>
+          <t>-30,96; 246,52</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>8,04; 27,19</t>
+          <t>8,88; 27,29</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 15,88</t>
+          <t>0,27; 15,73</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-6,94; 7,89</t>
+          <t>-6,31; 8,33</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>9,85; 25,22</t>
+          <t>9,84; 25,2</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>7,82; 23,87</t>
+          <t>7,74; 23,72</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>5,21; 17,33</t>
+          <t>5,55; 18,02</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>11,47; 23,32</t>
+          <t>12,64; 24,19</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>6,91; 18,5</t>
+          <t>6,75; 18,5</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>2,34; 12,08</t>
+          <t>2,27; 11,98</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>24,58; 113,21</t>
+          <t>26,13; 115,16</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 64,78</t>
+          <t>0,77; 68,44</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-20,96; 32,67</t>
+          <t>-19,59; 36,2</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>26,97; 90,97</t>
+          <t>26,84; 87,0</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>21,41; 85,88</t>
+          <t>20,27; 82,81</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>14,35; 62,84</t>
+          <t>14,9; 65,44</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>33,86; 83,4</t>
+          <t>36,72; 87,47</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>21,04; 67,45</t>
+          <t>19,79; 65,53</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>6,92; 44,05</t>
+          <t>6,29; 43,24</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>27,12; 32,6</t>
+          <t>27,45; 32,49</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>17,05; 22,44</t>
+          <t>17,05; 22,27</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 3,46</t>
+          <t>-1,44; 3,51</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>25,8; 30,42</t>
+          <t>25,42; 30,36</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>18,2; 23,1</t>
+          <t>18,14; 23,18</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 19,83</t>
+          <t>-1,29; 20,34</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>26,97; 30,5</t>
+          <t>27,12; 30,64</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>18,25; 21,98</t>
+          <t>18,53; 22,07</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 14,37</t>
+          <t>-0,34; 13,71</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>117,32; 159,14</t>
+          <t>119,86; 159,06</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>73,49; 108,72</t>
+          <t>73,94; 108,89</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-6,89; 16,73</t>
+          <t>-6,21; 17,22</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>93,74; 123,11</t>
+          <t>92,78; 122,01</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>66,44; 92,38</t>
+          <t>66,52; 92,55</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 80,1</t>
+          <t>-4,81; 76,87</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>107,28; 131,06</t>
+          <t>107,43; 131,19</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>73,18; 94,43</t>
+          <t>73,85; 94,31</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 61,0</t>
+          <t>-1,39; 55,7</t>
         </is>
       </c>
     </row>
